--- a/exampleProblems/Problem79/Problem79.xlsx
+++ b/exampleProblems/Problem79/Problem79.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dch1amk/Dropbox/liquidNMRinterpretation/AlanKenwright/2022/exampleProblems/Problem79/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/Problem79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A357BD-BA04-F342-B17C-B5448E21DEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{81A357BD-BA04-F342-B17C-B5448E21DEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76245A38-6CF6-45A0-96B6-4804C1938BC2}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="7200" windowWidth="27980" windowHeight="17420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -29,9 +29,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -174,6 +175,9 @@
   </si>
   <si>
     <t>D (d)</t>
+  </si>
+  <si>
+    <t>smiles</t>
   </si>
 </sst>
 </file>
@@ -622,23 +626,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -655,16 +662,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -691,7 +698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -720,7 +727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -749,7 +756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -778,7 +785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -807,7 +814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -836,7 +843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -901,7 +908,7 @@
       <selection activeCell="K7" sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="12"/>
@@ -1203,9 +1210,9 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="17">
+    <row r="1" spans="1:22" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>19</v>
@@ -1249,7 +1256,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="17">
+    <row r="2" spans="1:22" ht="16.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1282,7 +1289,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="17">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1315,7 +1322,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="17">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1348,7 +1355,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="17">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1381,7 +1388,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="17">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1414,7 +1421,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="17">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1447,7 +1454,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="17">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1480,7 +1487,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="17">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1513,7 +1520,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="17">
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1546,7 +1553,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="17">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1868,9 +1875,9 @@
       <selection activeCell="A5" sqref="A5:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>19</v>
@@ -1903,7 +1910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17">
+    <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1934,7 +1941,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="17">
+    <row r="3" spans="1:11" ht="16.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1965,7 +1972,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="17">
+    <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="11">
         <f>A3+1</f>
         <v>3</v>
@@ -1997,7 +2004,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:11" ht="16.5">
       <c r="A5" s="11">
         <f t="shared" ref="A5:A21" si="0">A4+1</f>
         <v>4</v>
@@ -2029,7 +2036,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:11" ht="16.5">
       <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2061,7 +2068,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="17">
+    <row r="7" spans="1:11" ht="16.5">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2093,7 +2100,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="17">
+    <row r="8" spans="1:11" ht="16.5">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2125,7 +2132,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="17">
+    <row r="9" spans="1:11" ht="16.5">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2157,7 +2164,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11" ht="17">
+    <row r="10" spans="1:11" ht="16.5">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2189,7 +2196,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="17">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2221,7 +2228,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" ht="17">
+    <row r="12" spans="1:11" ht="16.5">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2253,7 +2260,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" ht="17">
+    <row r="13" spans="1:11" ht="16.5">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2285,7 +2292,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="17">
+    <row r="14" spans="1:11" ht="16.5">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2317,7 +2324,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11" ht="17">
+    <row r="15" spans="1:11" ht="16.5">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2349,7 +2356,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" ht="17">
+    <row r="16" spans="1:11" ht="16.5">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2381,7 +2388,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" ht="17">
+    <row r="17" spans="1:11" ht="16.5">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2413,7 +2420,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" ht="17">
+    <row r="18" spans="1:11" ht="16.5">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2445,7 +2452,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" ht="17">
+    <row r="19" spans="1:11" ht="16.5">
       <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2477,7 +2484,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11" ht="17">
+    <row r="20" spans="1:11" ht="16.5">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2509,7 +2516,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="17">
+    <row r="21" spans="1:11" ht="16.5">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2758,7 +2765,7 @@
       <selection activeCell="I10" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="12"/>
@@ -3081,9 +3088,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -3110,7 +3117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3135,7 +3142,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3160,7 +3167,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3185,7 +3192,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -3210,7 +3217,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -3235,7 +3242,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3299,6 +3306,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3515,36 +3537,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3567,9 +3563,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/Problem79/Problem79.xlsx
+++ b/exampleProblems/Problem79/Problem79.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/Problem79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{81A357BD-BA04-F342-B17C-B5448E21DEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76245A38-6CF6-45A0-96B6-4804C1938BC2}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_C1E80741987C6D45F58022C2B52A492F031A1581" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FC41E69-10DD-E44D-8CBC-6BA01727F3D4}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18080" yWindow="1260" windowWidth="11280" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="HMBC" sheetId="8" r:id="rId5"/>
     <sheet name="C13_1D" sheetId="2" r:id="rId6"/>
     <sheet name="H1_pureshift" sheetId="3" r:id="rId7"/>
+    <sheet name="NOESY" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -178,6 +181,9 @@
   </si>
   <si>
     <t>smiles</t>
+  </si>
+  <si>
+    <t>O=C(O)C(Cc1ccc(O)cc1)NC(=O)CCl</t>
   </si>
 </sst>
 </file>
@@ -361,6 +367,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -628,13 +638,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -651,6 +662,9 @@
       </c>
       <c r="B2" t="s">
         <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -662,16 +676,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -698,7 +712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -712,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="E2" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="10">
-        <v>2.0099999999999998</v>
+        <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>28</v>
@@ -727,7 +741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -741,10 +755,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>28</v>
@@ -756,7 +770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -785,7 +799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -814,7 +828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -843,7 +857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -908,7 +922,7 @@
       <selection activeCell="K7" sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="12"/>
@@ -1207,12 +1221,12 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5">
+    <row r="1" spans="1:22" ht="17">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>19</v>
@@ -1256,7 +1270,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="16.5">
+    <row r="2" spans="1:22" ht="17">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1289,7 +1303,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5">
+    <row r="3" spans="1:22" ht="17">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1322,7 +1336,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5">
+    <row r="4" spans="1:22" ht="17">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1355,7 +1369,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5">
+    <row r="5" spans="1:22" ht="17">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1388,7 +1402,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5">
+    <row r="6" spans="1:22" ht="17">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1421,7 +1435,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5">
+    <row r="7" spans="1:22" ht="17">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1454,7 +1468,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5">
+    <row r="8" spans="1:22" ht="17">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1487,7 +1501,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5">
+    <row r="9" spans="1:22" ht="17">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1520,7 +1534,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5">
+    <row r="10" spans="1:22" ht="17">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1553,7 +1567,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5">
+    <row r="11" spans="1:22" ht="17">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1875,9 +1889,9 @@
       <selection activeCell="A5" sqref="A5:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>19</v>
@@ -1910,7 +1924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:11" ht="17">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1941,7 +1955,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5">
+    <row r="3" spans="1:11" ht="17">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1972,7 +1986,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5">
+    <row r="4" spans="1:11" ht="17">
       <c r="A4" s="11">
         <f>A3+1</f>
         <v>3</v>
@@ -2004,7 +2018,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5">
+    <row r="5" spans="1:11" ht="17">
       <c r="A5" s="11">
         <f t="shared" ref="A5:A21" si="0">A4+1</f>
         <v>4</v>
@@ -2036,7 +2050,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5">
+    <row r="6" spans="1:11" ht="17">
       <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2068,7 +2082,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5">
+    <row r="7" spans="1:11" ht="17">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2100,7 +2114,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5">
+    <row r="8" spans="1:11" ht="17">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2132,7 +2146,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5">
+    <row r="9" spans="1:11" ht="17">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2164,7 +2178,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5">
+    <row r="10" spans="1:11" ht="17">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2196,7 +2210,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" ht="17">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2228,7 +2242,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5">
+    <row r="12" spans="1:11" ht="17">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2260,7 +2274,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5">
+    <row r="13" spans="1:11" ht="17">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2292,7 +2306,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5">
+    <row r="14" spans="1:11" ht="17">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2324,7 +2338,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5">
+    <row r="15" spans="1:11" ht="17">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2356,7 +2370,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5">
+    <row r="16" spans="1:11" ht="17">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2388,7 +2402,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5">
+    <row r="17" spans="1:11" ht="17">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2420,7 +2434,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5">
+    <row r="18" spans="1:11" ht="17">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2452,7 +2466,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5">
+    <row r="19" spans="1:11" ht="17">
       <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2484,7 +2498,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5">
+    <row r="20" spans="1:11" ht="17">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2516,7 +2530,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5">
+    <row r="21" spans="1:11" ht="17">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2765,7 +2779,7 @@
       <selection activeCell="I10" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="12"/>
@@ -3088,9 +3102,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -3117,7 +3131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3142,7 +3156,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3167,7 +3181,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3192,7 +3206,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -3217,7 +3231,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -3242,7 +3256,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3305,19 +3319,67 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A3068C-C6EE-024D-8924-96CC3C294B74}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3538,26 +3600,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/exampleProblems/Problem79/Problem79.xlsx
+++ b/exampleProblems/Problem79/Problem79.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/Problem79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_C1E80741987C6D45F58022C2B52A492F031A1581" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FC41E69-10DD-E44D-8CBC-6BA01727F3D4}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_C1E80741987C6D45F58022C2B52A492F031A1581" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F478DCF5-A622-454C-B169-E6BBE2E67048}"/>
   <bookViews>
-    <workbookView xWindow="18080" yWindow="1260" windowWidth="11280" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6750" yWindow="1500" windowWidth="23880" windowHeight="13620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -367,10 +367,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -642,10 +638,10 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -676,16 +672,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -712,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -741,7 +737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -770,7 +766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -799,7 +795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -828,7 +824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -857,7 +853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -922,7 +918,7 @@
       <selection activeCell="K7" sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="12"/>
@@ -1224,9 +1220,9 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="17">
+    <row r="1" spans="1:22" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>19</v>
@@ -1270,7 +1266,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="17">
+    <row r="2" spans="1:22" ht="16.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1303,7 +1299,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="17">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1336,7 +1332,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="17">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1369,7 +1365,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="17">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1402,7 +1398,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="17">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1435,7 +1431,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="17">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1468,7 +1464,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="17">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1501,7 +1497,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="17">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1534,7 +1530,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="17">
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1567,7 +1563,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="17">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1885,13 +1881,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>19</v>
@@ -1924,7 +1920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17">
+    <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1955,7 +1951,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="17">
+    <row r="3" spans="1:11" ht="16.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1986,7 +1982,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="17">
+    <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="11">
         <f>A3+1</f>
         <v>3</v>
@@ -2018,7 +2014,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:11" ht="16.5">
       <c r="A5" s="11">
         <f t="shared" ref="A5:A21" si="0">A4+1</f>
         <v>4</v>
@@ -2050,7 +2046,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:11" ht="16.5">
       <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2082,7 +2078,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="17">
+    <row r="7" spans="1:11" ht="16.5">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2114,7 +2110,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="17">
+    <row r="8" spans="1:11" ht="16.5">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2146,7 +2142,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="17">
+    <row r="9" spans="1:11" ht="16.5">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2178,7 +2174,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11" ht="17">
+    <row r="10" spans="1:11" ht="16.5">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2210,7 +2206,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="17">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2242,7 +2238,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" ht="17">
+    <row r="12" spans="1:11" ht="16.5">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2274,7 +2270,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" ht="17">
+    <row r="13" spans="1:11" ht="16.5">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2306,7 +2302,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="17">
+    <row r="14" spans="1:11" ht="16.5">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2338,7 +2334,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11" ht="17">
+    <row r="15" spans="1:11" ht="16.5">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2347,7 +2343,7 @@
         <v>2.93</v>
       </c>
       <c r="C15" s="11">
-        <v>128.83000000000001</v>
+        <v>130.05000000000001</v>
       </c>
       <c r="D15" s="11">
         <v>0</v>
@@ -2370,7 +2366,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" ht="17">
+    <row r="16" spans="1:11" ht="16.5">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2402,7 +2398,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" ht="17">
+    <row r="17" spans="1:11" ht="16.5">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2434,7 +2430,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" ht="17">
+    <row r="18" spans="1:11" ht="16.5">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2466,7 +2462,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" ht="17">
+    <row r="19" spans="1:11" ht="16.5">
       <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2498,7 +2494,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11" ht="17">
+    <row r="20" spans="1:11" ht="16.5">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2530,7 +2526,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="17">
+    <row r="21" spans="1:11" ht="16.5">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2779,7 +2775,7 @@
       <selection activeCell="I10" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="12"/>
@@ -3102,9 +3098,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -3131,7 +3127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3156,7 +3152,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3181,7 +3177,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3206,7 +3202,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -3231,7 +3227,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -3256,7 +3252,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3327,9 +3323,9 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>19</v>
@@ -3368,21 +3364,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3599,32 +3580,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3641,4 +3612,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>